--- a/LongForm_TeamB/ExcelFile/API_inputs.xlsx
+++ b/LongForm_TeamB/ExcelFile/API_inputs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14775" windowHeight="3585" tabRatio="903" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14265" windowHeight="1680" tabRatio="903" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="RLtoWOPMappingRule" sheetId="12" state="hidden" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <sheet name="MP" sheetId="15" state="hidden" r:id="rId25"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A2:G11"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -1341,7 +1341,7 @@
 AND Source_System='AMCN.EVERTZ.MEDIATOR.REGISTRATION.TO.ADAPTER'</t>
   </si>
   <si>
-    <t>RLA177301</t>
+    <t>RLA177308</t>
   </si>
 </sst>
 </file>
@@ -2177,7 +2177,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/LongForm_TeamB/ExcelFile/API_inputs.xlsx
+++ b/LongForm_TeamB/ExcelFile/API_inputs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14265" windowHeight="1680" tabRatio="903" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15435" windowHeight="2415" tabRatio="903" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="RLtoWOPMappingRule" sheetId="12" state="hidden" r:id="rId1"/>
@@ -14,32 +14,31 @@
     <sheet name="WOPScedulingImages" sheetId="49" r:id="rId5"/>
     <sheet name="Login" sheetId="51" r:id="rId6"/>
     <sheet name="DataBase" sheetId="56" r:id="rId7"/>
-    <sheet name="NonProdLoginCredentials" sheetId="37" r:id="rId8"/>
-    <sheet name="ExecutionModel" sheetId="39" r:id="rId9"/>
-    <sheet name="ProductBrowserData" sheetId="54" r:id="rId10"/>
-    <sheet name="EPVersionData" sheetId="55" r:id="rId11"/>
-    <sheet name="ZeusXML" sheetId="13" state="hidden" r:id="rId12"/>
-    <sheet name="RLAPI" sheetId="19" state="hidden" r:id="rId13"/>
-    <sheet name="SymboxAPI" sheetId="34" state="hidden" r:id="rId14"/>
-    <sheet name="WOPAPIMASTER" sheetId="22" state="hidden" r:id="rId15"/>
-    <sheet name="WOPAPIASSET" sheetId="26" state="hidden" r:id="rId16"/>
-    <sheet name="TVRatingConversions" sheetId="32" state="hidden" r:id="rId17"/>
-    <sheet name="WOPAPIASSET1" sheetId="29" state="hidden" r:id="rId18"/>
-    <sheet name="TV_RATING_ZtoWOP" sheetId="27" state="hidden" r:id="rId19"/>
-    <sheet name="ZuesFields" sheetId="33" state="hidden" r:id="rId20"/>
-    <sheet name="MPAPI" sheetId="23" state="hidden" r:id="rId21"/>
-    <sheet name="Aspect_Ratio_ZtoWOP" sheetId="17" state="hidden" r:id="rId22"/>
-    <sheet name="WOP" sheetId="11" state="hidden" r:id="rId23"/>
-    <sheet name="RL" sheetId="10" state="hidden" r:id="rId24"/>
-    <sheet name="MP" sheetId="15" state="hidden" r:id="rId25"/>
+    <sheet name="ExecutionModel" sheetId="39" r:id="rId8"/>
+    <sheet name="ProductBrowserData" sheetId="54" r:id="rId9"/>
+    <sheet name="EPVersionData" sheetId="55" r:id="rId10"/>
+    <sheet name="ZeusXML" sheetId="13" state="hidden" r:id="rId11"/>
+    <sheet name="RLAPI" sheetId="19" state="hidden" r:id="rId12"/>
+    <sheet name="SymboxAPI" sheetId="34" state="hidden" r:id="rId13"/>
+    <sheet name="WOPAPIMASTER" sheetId="22" state="hidden" r:id="rId14"/>
+    <sheet name="WOPAPIASSET" sheetId="26" state="hidden" r:id="rId15"/>
+    <sheet name="TVRatingConversions" sheetId="32" state="hidden" r:id="rId16"/>
+    <sheet name="WOPAPIASSET1" sheetId="29" state="hidden" r:id="rId17"/>
+    <sheet name="TV_RATING_ZtoWOP" sheetId="27" state="hidden" r:id="rId18"/>
+    <sheet name="ZuesFields" sheetId="33" state="hidden" r:id="rId19"/>
+    <sheet name="MPAPI" sheetId="23" state="hidden" r:id="rId20"/>
+    <sheet name="Aspect_Ratio_ZtoWOP" sheetId="17" state="hidden" r:id="rId21"/>
+    <sheet name="WOP" sheetId="11" state="hidden" r:id="rId22"/>
+    <sheet name="RL" sheetId="10" state="hidden" r:id="rId23"/>
+    <sheet name="MP" sheetId="15" state="hidden" r:id="rId24"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:G14"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="398">
   <si>
     <t>Content-Type</t>
   </si>
@@ -566,9 +565,6 @@
     <t>API name</t>
   </si>
   <si>
-    <t>PassWord</t>
-  </si>
-  <si>
     <t>UserName</t>
   </si>
   <si>
@@ -593,9 +589,6 @@
     <t>CMSNVFieldValidationsWithMPTest</t>
   </si>
   <si>
-    <t>Dream!!0230</t>
-  </si>
-  <si>
     <t>https://amc-test.symbox.com</t>
   </si>
   <si>
@@ -1220,9 +1213,6 @@
     <t>Pictures\\WopImages\\Validate_StartDate.PNG</t>
   </si>
   <si>
-    <t>Adhar**009</t>
-  </si>
-  <si>
     <t>https://nonprodportal.amcnetworks.com/Citrix/AppsWeb/</t>
   </si>
   <si>
@@ -1305,9 +1295,6 @@
   </si>
   <si>
     <t>testAMCN</t>
-  </si>
-  <si>
-    <t>Symbox@456</t>
   </si>
   <si>
     <t>jdbc:sqlserver://Dev-adam03\esbsql</t>
@@ -1341,7 +1328,13 @@
 AND Source_System='AMCN.EVERTZ.MEDIATOR.REGISTRATION.TO.ADAPTER'</t>
   </si>
   <si>
-    <t>RLA177308</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Symbox@457</t>
+  </si>
+  <si>
+    <t>RLA178227</t>
   </si>
 </sst>
 </file>
@@ -2174,108 +2167,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>374</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>376</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>379</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="H1" s="42" t="s">
-        <v>381</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>382</v>
-      </c>
-      <c r="J1" s="42" t="s">
-        <v>383</v>
-      </c>
-      <c r="K1" s="42" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="9" customFormat="1">
-      <c r="A2" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>399</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>375</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>377</v>
-      </c>
-      <c r="E2" s="46">
-        <v>2</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>385</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>384</v>
-      </c>
-      <c r="H2" s="43">
-        <v>1.78</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>386</v>
-      </c>
-      <c r="J2" s="43" t="s">
-        <v>387</v>
-      </c>
-      <c r="K2" s="9">
-        <v>9000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2286,42 +2181,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="41" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="16" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="16" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="16" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -2330,7 +2225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2350,7 +2245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -2439,7 +2334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2501,7 +2396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -2610,7 +2505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -2709,7 +2604,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="409.6">
       <c r="D6" s="3"/>
     </row>
   </sheetData>
@@ -2722,7 +2617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2787,7 +2682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -2893,7 +2788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2926,6 +2821,74 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3055,74 +3018,6 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -3182,7 +3077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -3220,7 +3115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -3438,7 +3333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -3575,7 +3470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -3737,7 +3632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3753,43 +3648,43 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="34" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
         <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B4" t="s">
         <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3819,761 +3714,761 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
         <v>165</v>
-      </c>
-      <c r="B1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" t="s">
         <v>170</v>
-      </c>
-      <c r="C3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="39" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B4" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="39" t="s">
         <v>173</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="39" t="s">
         <v>178</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" t="s">
         <v>181</v>
-      </c>
-      <c r="C7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="40" t="s">
         <v>184</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="40" t="s">
         <v>187</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>190</v>
-      </c>
-      <c r="B10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" t="s">
         <v>193</v>
-      </c>
-      <c r="B11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" t="s">
         <v>196</v>
-      </c>
-      <c r="C12" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" t="s">
         <v>199</v>
-      </c>
-      <c r="C13" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" t="s">
         <v>207</v>
-      </c>
-      <c r="C14" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" t="s">
         <v>212</v>
-      </c>
-      <c r="B16" t="s">
-        <v>213</v>
-      </c>
-      <c r="C16" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" t="s">
         <v>214</v>
-      </c>
-      <c r="B17" t="s">
-        <v>215</v>
-      </c>
-      <c r="C17" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" t="s">
         <v>220</v>
-      </c>
-      <c r="C19" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C20" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" t="s">
         <v>225</v>
-      </c>
-      <c r="B21" t="s">
-        <v>226</v>
-      </c>
-      <c r="C21" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" t="s">
         <v>228</v>
       </c>
-      <c r="B22" t="s">
-        <v>230</v>
-      </c>
       <c r="C22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" t="s">
+        <v>230</v>
+      </c>
+      <c r="C23" t="s">
         <v>231</v>
-      </c>
-      <c r="B23" t="s">
-        <v>232</v>
-      </c>
-      <c r="C23" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C24" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C26" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" t="s">
         <v>243</v>
-      </c>
-      <c r="B27" t="s">
-        <v>244</v>
-      </c>
-      <c r="C27" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>244</v>
+      </c>
+      <c r="B28" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" t="s">
         <v>246</v>
-      </c>
-      <c r="B28" t="s">
-        <v>247</v>
-      </c>
-      <c r="C28" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>247</v>
+      </c>
+      <c r="B29" t="s">
         <v>249</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>251</v>
-      </c>
-      <c r="C29" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>248</v>
+      </c>
+      <c r="B30" t="s">
         <v>250</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>252</v>
-      </c>
-      <c r="C30" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>253</v>
+      </c>
+      <c r="B31" t="s">
+        <v>254</v>
+      </c>
+      <c r="C31" t="s">
         <v>255</v>
-      </c>
-      <c r="B31" t="s">
-        <v>256</v>
-      </c>
-      <c r="C31" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>256</v>
+      </c>
+      <c r="B32" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" t="s">
         <v>258</v>
-      </c>
-      <c r="B32" t="s">
-        <v>259</v>
-      </c>
-      <c r="C32" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>259</v>
+      </c>
+      <c r="B33" t="s">
         <v>261</v>
       </c>
-      <c r="B33" t="s">
-        <v>263</v>
-      </c>
       <c r="C33" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B34" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C34" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B35" t="s">
+        <v>266</v>
+      </c>
+      <c r="C35" t="s">
         <v>268</v>
-      </c>
-      <c r="C35" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B36" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C36" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B37" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C37" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B38" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C38" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B39" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C39" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B40" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C40" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>281</v>
+      </c>
+      <c r="B41" t="s">
         <v>283</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>285</v>
-      </c>
-      <c r="C41" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>282</v>
+      </c>
+      <c r="B42" t="s">
         <v>284</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>286</v>
-      </c>
-      <c r="C42" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B43" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C43" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B44" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C44" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B45" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C45" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B46" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C46" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B47" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C47" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B48" t="s">
+        <v>218</v>
+      </c>
+      <c r="C48" t="s">
         <v>220</v>
-      </c>
-      <c r="C48" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B49" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C49" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B50" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C50" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B51" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C51" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B52" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C52" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B53" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C53" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B54" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C54" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B55" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C55" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>309</v>
+      </c>
+      <c r="B56" t="s">
+        <v>310</v>
+      </c>
+      <c r="C56" t="s">
         <v>311</v>
-      </c>
-      <c r="B56" t="s">
-        <v>312</v>
-      </c>
-      <c r="C56" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B57" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C57" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B58" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C58" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B59" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C59" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B60" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C60" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B61" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C61" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B62" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C62" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B63" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C63" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B64" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C64" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>346</v>
+      </c>
+      <c r="B65" t="s">
+        <v>347</v>
+      </c>
+      <c r="C65" t="s">
         <v>348</v>
-      </c>
-      <c r="B65" t="s">
-        <v>349</v>
-      </c>
-      <c r="C65" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>349</v>
+      </c>
+      <c r="B66" t="s">
+        <v>350</v>
+      </c>
+      <c r="C66" t="s">
         <v>351</v>
-      </c>
-      <c r="B66" t="s">
-        <v>352</v>
-      </c>
-      <c r="C66" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B67" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C67" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>354</v>
+      </c>
+      <c r="B68" t="s">
+        <v>358</v>
+      </c>
+      <c r="C68" t="s">
         <v>356</v>
-      </c>
-      <c r="B68" t="s">
-        <v>360</v>
-      </c>
-      <c r="C68" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
+        <v>355</v>
+      </c>
+      <c r="B69" t="s">
+        <v>359</v>
+      </c>
+      <c r="C69" t="s">
         <v>357</v>
-      </c>
-      <c r="B69" t="s">
-        <v>361</v>
-      </c>
-      <c r="C69" t="s">
-        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -4586,7 +4481,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4597,46 +4492,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
         <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>362</v>
       </c>
       <c r="C3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4644,6 +4539,7 @@
     <hyperlink ref="B2" r:id="rId1" display="Welcome@123"/>
     <hyperlink ref="A3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4" display="Welcome@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4667,30 +4563,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="41" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C1" s="41" t="s">
         <v>99</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1" ht="189">
       <c r="A2" s="47" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C2" s="47" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>394</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -4701,48 +4597,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>153</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4752,21 +4610,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="31" t="s">
         <v>148</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="36">
         <v>29546</v>
@@ -4774,10 +4632,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="36">
         <v>29600</v>
@@ -4785,10 +4643,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="36">
         <v>29601</v>
@@ -4796,10 +4654,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="36">
         <v>29602</v>
@@ -4807,10 +4665,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="36">
         <v>29603</v>
@@ -4818,10 +4676,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="37" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="36">
         <v>29604</v>
@@ -4843,4 +4701,102 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>373</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>377</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>378</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>379</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="9" customFormat="1">
+      <c r="A2" s="43" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>395</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>381</v>
+      </c>
+      <c r="H2" s="43">
+        <v>1.78</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="J2" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="K2" s="43">
+        <v>9000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/LongForm_TeamB/ExcelFile/API_inputs.xlsx
+++ b/LongForm_TeamB/ExcelFile/API_inputs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15435" windowHeight="2415" tabRatio="903" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14730" windowHeight="6060" tabRatio="903" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="RLtoWOPMappingRule" sheetId="12" state="hidden" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="MP" sheetId="15" state="hidden" r:id="rId24"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G14"/>
+  <oleSize ref="A1:G17"/>
 </workbook>
 </file>
 
@@ -1303,9 +1303,6 @@
     <t>adamqa</t>
   </si>
   <si>
-    <t>amcnTest@123</t>
-  </si>
-  <si>
     <t>DataBaseURL</t>
   </si>
   <si>
@@ -1331,10 +1328,13 @@
     <t>3</t>
   </si>
   <si>
-    <t>Symbox@457</t>
-  </si>
-  <si>
-    <t>RLA178227</t>
+    <t>amcnTest@456</t>
+  </si>
+  <si>
+    <t>Amc@2020</t>
+  </si>
+  <si>
+    <t>RLA172954</t>
   </si>
 </sst>
 </file>
@@ -2216,7 +2216,7 @@
         <v>367</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -2604,7 +2604,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="409.6">
+    <row r="6" spans="1:6">
       <c r="D6" s="3"/>
     </row>
   </sheetData>
@@ -4481,7 +4481,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4550,7 +4550,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4563,7 +4563,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="41" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>144</v>
@@ -4572,7 +4572,7 @@
         <v>99</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1" ht="189">
@@ -4582,16 +4582,19 @@
       <c r="B2" s="47" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="47" t="s">
-        <v>390</v>
+      <c r="C2" s="30" t="s">
+        <v>395</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4708,7 +4711,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4774,7 +4777,7 @@
         <v>374</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F2" s="43" t="s">
         <v>382</v>

--- a/LongForm_TeamB/ExcelFile/API_inputs.xlsx
+++ b/LongForm_TeamB/ExcelFile/API_inputs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14730" windowHeight="6060" tabRatio="903" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15435" windowHeight="2415" tabRatio="903" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="RLtoWOPMappingRule" sheetId="12" state="hidden" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="MP" sheetId="15" state="hidden" r:id="rId24"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G17"/>
+  <oleSize ref="A1:G14"/>
 </workbook>
 </file>
 
@@ -1303,6 +1303,9 @@
     <t>adamqa</t>
   </si>
   <si>
+    <t>amcnTest@123</t>
+  </si>
+  <si>
     <t>DataBaseURL</t>
   </si>
   <si>
@@ -1328,13 +1331,10 @@
     <t>3</t>
   </si>
   <si>
-    <t>amcnTest@456</t>
-  </si>
-  <si>
-    <t>Amc@2020</t>
-  </si>
-  <si>
-    <t>RLA172954</t>
+    <t>Symbox@457</t>
+  </si>
+  <si>
+    <t>RLA178227</t>
   </si>
 </sst>
 </file>
@@ -2216,7 +2216,7 @@
         <v>367</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -2604,7 +2604,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="409.6">
       <c r="D6" s="3"/>
     </row>
   </sheetData>
@@ -4481,7 +4481,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4550,7 +4550,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4563,7 +4563,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="41" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>144</v>
@@ -4572,7 +4572,7 @@
         <v>99</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1" ht="189">
@@ -4582,19 +4582,16 @@
       <c r="B2" s="47" t="s">
         <v>389</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>395</v>
+      <c r="C2" s="47" t="s">
+        <v>390</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4711,7 +4708,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4777,7 +4774,7 @@
         <v>374</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F2" s="43" t="s">
         <v>382</v>

--- a/LongForm_TeamB/ExcelFile/API_inputs.xlsx
+++ b/LongForm_TeamB/ExcelFile/API_inputs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14730" windowHeight="6060" tabRatio="903" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="6060" tabRatio="903" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="RLtoWOPMappingRule" sheetId="12" state="hidden" r:id="rId1"/>
@@ -14,31 +14,30 @@
     <sheet name="WOPScedulingImages" sheetId="49" r:id="rId5"/>
     <sheet name="Login" sheetId="51" r:id="rId6"/>
     <sheet name="DataBase" sheetId="56" r:id="rId7"/>
-    <sheet name="ExecutionModel" sheetId="39" r:id="rId8"/>
-    <sheet name="ProductBrowserData" sheetId="54" r:id="rId9"/>
-    <sheet name="EPVersionData" sheetId="55" r:id="rId10"/>
-    <sheet name="ZeusXML" sheetId="13" state="hidden" r:id="rId11"/>
-    <sheet name="RLAPI" sheetId="19" state="hidden" r:id="rId12"/>
-    <sheet name="SymboxAPI" sheetId="34" state="hidden" r:id="rId13"/>
-    <sheet name="WOPAPIMASTER" sheetId="22" state="hidden" r:id="rId14"/>
-    <sheet name="WOPAPIASSET" sheetId="26" state="hidden" r:id="rId15"/>
-    <sheet name="TVRatingConversions" sheetId="32" state="hidden" r:id="rId16"/>
-    <sheet name="WOPAPIASSET1" sheetId="29" state="hidden" r:id="rId17"/>
-    <sheet name="TV_RATING_ZtoWOP" sheetId="27" state="hidden" r:id="rId18"/>
-    <sheet name="ZuesFields" sheetId="33" state="hidden" r:id="rId19"/>
-    <sheet name="MPAPI" sheetId="23" state="hidden" r:id="rId20"/>
-    <sheet name="Aspect_Ratio_ZtoWOP" sheetId="17" state="hidden" r:id="rId21"/>
-    <sheet name="WOP" sheetId="11" state="hidden" r:id="rId22"/>
-    <sheet name="RL" sheetId="10" state="hidden" r:id="rId23"/>
-    <sheet name="MP" sheetId="15" state="hidden" r:id="rId24"/>
+    <sheet name="ProductBrowserData" sheetId="54" r:id="rId8"/>
+    <sheet name="EPVersionData" sheetId="55" r:id="rId9"/>
+    <sheet name="ZeusXML" sheetId="13" state="hidden" r:id="rId10"/>
+    <sheet name="RLAPI" sheetId="19" state="hidden" r:id="rId11"/>
+    <sheet name="SymboxAPI" sheetId="34" state="hidden" r:id="rId12"/>
+    <sheet name="WOPAPIMASTER" sheetId="22" state="hidden" r:id="rId13"/>
+    <sheet name="WOPAPIASSET" sheetId="26" state="hidden" r:id="rId14"/>
+    <sheet name="TVRatingConversions" sheetId="32" state="hidden" r:id="rId15"/>
+    <sheet name="WOPAPIASSET1" sheetId="29" state="hidden" r:id="rId16"/>
+    <sheet name="TV_RATING_ZtoWOP" sheetId="27" state="hidden" r:id="rId17"/>
+    <sheet name="ZuesFields" sheetId="33" state="hidden" r:id="rId18"/>
+    <sheet name="MPAPI" sheetId="23" state="hidden" r:id="rId19"/>
+    <sheet name="Aspect_Ratio_ZtoWOP" sheetId="17" state="hidden" r:id="rId20"/>
+    <sheet name="WOP" sheetId="11" state="hidden" r:id="rId21"/>
+    <sheet name="RL" sheetId="10" state="hidden" r:id="rId22"/>
+    <sheet name="MP" sheetId="15" state="hidden" r:id="rId23"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G17"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="388">
   <si>
     <t>Content-Type</t>
   </si>
@@ -571,37 +570,7 @@
     <t>Chaitanya.Sunkara@amcnetworks.com</t>
   </si>
   <si>
-    <t>TestCaseID</t>
-  </si>
-  <si>
-    <t>Execute</t>
-  </si>
-  <si>
-    <t>TestRailID</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>CMSNVFieldValidationsWithWOPTest</t>
-  </si>
-  <si>
-    <t>CMSNVFieldValidationsWithMPTest</t>
-  </si>
-  <si>
     <t>https://amc-test.symbox.com</t>
-  </si>
-  <si>
-    <t>CMSNVRecordMigrationTest</t>
-  </si>
-  <si>
-    <t>validatePortalAMCNIDWithCMSNVPayLoad</t>
-  </si>
-  <si>
-    <t>validatePortalTitleWithCMSNVPayLoad</t>
-  </si>
-  <si>
-    <t>validatePortalEpisdoeNumberWithCMSNVPayLoad</t>
   </si>
   <si>
     <t>ProgrameName</t>
@@ -1334,7 +1303,7 @@
     <t>Amc@2020</t>
   </si>
   <si>
-    <t>RLA172954</t>
+    <t>RLA169216</t>
   </si>
 </sst>
 </file>
@@ -1344,30 +1313,9 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="15">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1550,48 +1498,48 @@
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1609,41 +1557,34 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="21"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="21"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2167,66 +2108,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="41" t="s">
-        <v>365</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>392</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2245,7 +2126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -2334,7 +2215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -2396,7 +2277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -2505,7 +2386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -2617,7 +2498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2682,7 +2563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -2788,7 +2669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2824,7 +2705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
@@ -2888,6 +2769,67 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="5" max="5" width="38.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.5">
+      <c r="A2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3018,67 +2960,6 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="5" max="5" width="38.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="409.5">
-      <c r="A2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3115,7 +2996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -3333,7 +3214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -3470,7 +3351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -3632,7 +3513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3648,43 +3529,43 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="34" t="s">
-        <v>152</v>
+      <c r="A2" s="31" t="s">
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
         <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B4" t="s">
         <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3701,7 +3582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -3714,761 +3595,761 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>173</v>
+      <c r="A4" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>178</v>
+      <c r="A6" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>184</v>
+        <v>172</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>187</v>
+        <v>175</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>190</v>
+        <v>179</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C11" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C12" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C13" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C14" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B17" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C18" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C19" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C20" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C21" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C22" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C23" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C24" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C25" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C26" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C27" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C28" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B29" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C29" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B30" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C30" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B31" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C31" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B32" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C32" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B33" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C33" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B34" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C34" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B35" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C35" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B36" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C36" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B37" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C37" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B38" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C38" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B39" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C39" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B40" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C40" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B41" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C41" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B42" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C42" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B43" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C43" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B44" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C44" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B45" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C45" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B46" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C46" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B47" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C47" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B48" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C48" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B49" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C49" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B50" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C50" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B51" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C51" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B52" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C52" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>296</v>
+      </c>
+      <c r="B53" t="s">
         <v>306</v>
       </c>
-      <c r="B53" t="s">
-        <v>316</v>
-      </c>
       <c r="C53" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B54" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C54" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B55" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C55" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B56" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C56" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B57" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C57" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B58" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C58" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B59" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C59" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B60" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C60" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B61" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C61" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B62" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C62" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B63" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C63" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B64" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C64" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B65" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C65" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B66" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C66" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B67" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C67" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B68" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C68" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B69" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C69" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -4492,7 +4373,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s">
         <v>99</v>
@@ -4503,13 +4384,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4517,21 +4398,21 @@
         <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C3" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4549,8 +4430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4562,31 +4443,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="41" t="s">
-        <v>390</v>
-      </c>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>391</v>
+      <c r="D1" s="34" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1" ht="189">
-      <c r="A2" s="47" t="s">
-        <v>388</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>389</v>
+      <c r="A2" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>379</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -4600,118 +4481,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="41.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="36">
-        <v>29546</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="36">
-        <v>29600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="36">
-        <v>29601</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="36">
-        <v>29602</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="36">
-        <v>29603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="36">
-        <v>29604</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://amcnetworks.testrail.io/index.php?/cases/view/29546"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://amcnetworks.testrail.io/index.php?/cases/view/29600"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://amcnetworks.testrail.io/index.php?/cases/view/29601"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://amcnetworks.testrail.io/index.php?/cases/view/29603"/>
-    <hyperlink ref="C2" r:id="rId5" display="https://amcnetworks.testrail.io/index.php?/cases/view/29546"/>
-    <hyperlink ref="C3" r:id="rId6" display="https://amcnetworks.testrail.io/index.php?/cases/view/29600"/>
-    <hyperlink ref="C4" r:id="rId7" display="https://amcnetworks.testrail.io/index.php?/cases/view/29601"/>
-    <hyperlink ref="C5" r:id="rId8" display="https://amcnetworks.testrail.io/index.php?/cases/view/29602"/>
-    <hyperlink ref="C6" r:id="rId9" display="https://amcnetworks.testrail.io/index.php?/cases/view/29603"/>
-    <hyperlink ref="C7" r:id="rId10" display="https://amcnetworks.testrail.io/index.php?/cases/view/29604"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4729,73 +4502,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>363</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="44" t="s">
+      <c r="E1" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="9" customFormat="1">
+      <c r="A2" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="G2" s="36" t="s">
         <v>371</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="H2" s="36">
+        <v>1.78</v>
+      </c>
+      <c r="I2" s="36" t="s">
         <v>373</v>
       </c>
-      <c r="E1" s="42" t="s">
-        <v>375</v>
-      </c>
-      <c r="F1" s="42" t="s">
+      <c r="J2" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="K2" s="36">
+        <v>9000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="G1" s="42" t="s">
-        <v>377</v>
-      </c>
-      <c r="H1" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>379</v>
-      </c>
-      <c r="J1" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="K1" s="42" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="9" customFormat="1">
-      <c r="A2" s="43" t="s">
-        <v>364</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>397</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>372</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>374</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>394</v>
-      </c>
-      <c r="F2" s="43" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>382</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>381</v>
-      </c>
-      <c r="H2" s="43">
-        <v>1.78</v>
-      </c>
-      <c r="I2" s="43" t="s">
-        <v>383</v>
-      </c>
-      <c r="J2" s="43" t="s">
-        <v>384</v>
-      </c>
-      <c r="K2" s="43">
-        <v>9000</v>
       </c>
     </row>
   </sheetData>

--- a/LongForm_TeamB/ExcelFile/API_inputs.xlsx
+++ b/LongForm_TeamB/ExcelFile/API_inputs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="6060" tabRatio="903" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15165" windowHeight="6060" tabRatio="903" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="RLtoWOPMappingRule" sheetId="12" state="hidden" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <sheet name="MP" sheetId="15" state="hidden" r:id="rId23"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:G17"/>
 </workbook>
 </file>
 
@@ -1303,7 +1303,7 @@
     <t>Amc@2020</t>
   </si>
   <si>
-    <t>RLA169216</t>
+    <t>RLA169547</t>
   </si>
 </sst>
 </file>
@@ -4362,7 +4362,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4484,7 +4484,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4579,10 +4579,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4601,10 +4601,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4623,14 +4623,15 @@
         <v>376</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" customFormat="1">
       <c r="A5" s="16" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>382</v>
-      </c>
-    </row>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
